--- a/resource/拓展板EP-IO分配-20250513.3.xlsx
+++ b/resource/拓展板EP-IO分配-20250513.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27950" windowHeight="12400"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -763,21 +763,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -830,6 +815,21 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1091,7 +1091,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,37 +1116,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1683,7 +1686,7 @@
   <dimension ref="C1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1807,7 +1810,7 @@
       <c r="Q4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="18" t="s">
         <v>28</v>
       </c>
       <c r="S4" s="16"/>
@@ -1836,7 +1839,7 @@
       <c r="Q5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="18" t="s">
         <v>32</v>
       </c>
       <c r="S5" s="16"/>
@@ -1865,7 +1868,7 @@
       <c r="Q6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="18" t="s">
         <v>36</v>
       </c>
       <c r="S6" s="16"/>
@@ -1894,7 +1897,7 @@
       <c r="Q7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="18" t="s">
         <v>40</v>
       </c>
       <c r="S7" s="16"/>
@@ -1923,7 +1926,7 @@
       <c r="Q8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="18" t="s">
         <v>44</v>
       </c>
       <c r="S8" s="16"/>
@@ -1952,7 +1955,7 @@
       <c r="Q9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="18" t="s">
         <v>48</v>
       </c>
       <c r="S9" s="16"/>
@@ -1981,7 +1984,7 @@
       <c r="Q10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S10" s="16"/>
@@ -2010,7 +2013,7 @@
       <c r="Q11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="18" t="s">
         <v>56</v>
       </c>
       <c r="S11" s="16"/>
@@ -2039,7 +2042,7 @@
       <c r="Q12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="18" t="s">
         <v>60</v>
       </c>
       <c r="S12" s="16"/>
@@ -2068,7 +2071,7 @@
       <c r="Q13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="18" t="s">
         <v>64</v>
       </c>
       <c r="S13" s="16"/>
@@ -2097,7 +2100,7 @@
       <c r="Q14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="18" t="s">
         <v>68</v>
       </c>
       <c r="S14" s="16"/>
@@ -2126,7 +2129,7 @@
       <c r="Q15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="18" t="s">
         <v>72</v>
       </c>
       <c r="S15" s="16"/>
@@ -2173,8 +2176,8 @@
         <v>84</v>
       </c>
       <c r="Q16" s="9"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="20"/>
       <c r="T16" s="16"/>
       <c r="U16" s="14"/>
     </row>
@@ -2210,7 +2213,7 @@
         <v>92</v>
       </c>
       <c r="Q17" s="11"/>
-      <c r="R17" s="20"/>
+      <c r="R17" s="21"/>
       <c r="S17" s="16"/>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
